--- a/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
+++ b/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>NOME CASO DE USO</t>
   </si>
@@ -63,16 +63,10 @@
     <t>Este UC será executado sempre que um novo paciente for realizar uma consulta ou que seja necessário a alteração de algum dado de cadastro do mesmo</t>
   </si>
   <si>
-    <t>Secretária, Fisioterapeuta</t>
-  </si>
-  <si>
     <t>FEITO</t>
   </si>
   <si>
     <t>NÃO FEITO</t>
-  </si>
-  <si>
-    <t>Estar logado no sistema, ter perfil de Fisioterapeuta e/ou Secretária</t>
   </si>
   <si>
     <t>Após execução um novo paciente deve ser inserido no banco de dados com sucesso ou o paciente deve ter seus dados alterados com sucesso.</t>
@@ -154,17 +148,6 @@
     </r>
   </si>
   <si>
-    <t>A01-
-     1. Usuário clica em botão de busca. (E02)
-     2. Usuário informa um dos campos para busca.
-     3. Usuário clica no botão "Procurar"(E03)
-     4. Sistema exibe o cadastro do paciente.
-     5. Usuário clica no botão "Editar".
-     6. Usuário muda inforções pertinentes.
-     7. Usuário clica no botão gravar.
-     8. Sistema informa sucesso.</t>
-  </si>
-  <si>
     <t>A01 - 
       1 - Usuário clica no botão para realizar troca da senha.
        2 - Sistema exibe tela para troca de senha.
@@ -236,13 +219,6 @@
     <t>Sistema deve exibir tela com sucesso de troca de senha</t>
   </si>
   <si>
-    <t xml:space="preserve">  1 - Usuário clica no botão para realizar troca da senha.
-       2 - Sistema exibe tela para troca de senha.
-       3 - Usuário informa a senha antiga e digita por duas vezes a senha nova (para confirmação)
-       4 - Usuário clica no botão "pronto".(E01)
-       5 - Sistema exibe mensagem de sucesso.</t>
-  </si>
-  <si>
     <t>E01 - Sistema informa que os campos de senha nova devem ser preenchidos de forma igual.</t>
   </si>
   <si>
@@ -261,28 +237,89 @@
     <t>Após execução um novo funcionário deverá estar cadastrado na base de dados ou  as alterações referentes a determinado funcionário deveram ser feitas com sucesso.</t>
   </si>
   <si>
-    <t>1. Usuário clica em botão "Novo paciente". (A01)(E02)
-2. Usuário preenche dados solicitados. (RN01)
-3. Usuário clica em botão avançar. (E01)
-4. Sistema avança a próxima tela número 02 referente ao cadastro.
-5. Usuário preenche dados solicitados. (RN01)
-6. Usuário clica em botão avançar. (E01)
-7. Sistema avança para a tela de número 03 referente ao cadastro.
-8. Usuário preenche dados solicitados. (RN01)
-9. Usuário clica em botão de "Concluir". (E01)
-10.Sistema informa sucesso.</t>
+    <t>E01 - Sistema informa que campos obrigatóros não estão preenchidos
+E02 - Sistema informa que conexão com o banco de dados não está disponível
+E03 - Sistema informa que funcionário não existe.</t>
+  </si>
+  <si>
+    <t>RN01 - Todos os campos devem ser preenchidos.</t>
+  </si>
+  <si>
+    <t>Manter usuário</t>
+  </si>
+  <si>
+    <t>Permitir a criação/alteração de usuários</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que houver a necessidade de inclusão ou alteração de um usuário.</t>
+  </si>
+  <si>
+    <t>Estar logado no sistema, ter perfil de Administrador e possuir funconário cadastrado.</t>
+  </si>
+  <si>
+    <t>Após a execução o funcionário deverá ter seu usuário alterado ou incluso.</t>
+  </si>
+  <si>
+    <t>E01 - Sistema informa que conexão com o banco de dados
+E02 - Sistema informa que funcionário não existe.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RN01 - o </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">username </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">deve ser construído da seguinte forma: nome.sobrenome
+RN02 - a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inicial será composta das 3 primeiras letras do nome + data de nascimento.</t>
+    </r>
+  </si>
+  <si>
+    <t>Permitir o cadastro/alteração de funcionários.</t>
   </si>
   <si>
     <t>1. Usuário clica em novo funcionário. (A01)
 2. Sistema apresenta tela para preenchimento dos dados.
 3. Usuário preenche dados solicitados. (RN01)
-4. Usuário clica no botão "Concluir". (E01)
+4. Usuário clica no botão "Concluir". (E01)(A02)
 5. Sistema exibe tela de "cadastro efetuado com sucesso".</t>
-  </si>
-  <si>
-    <t>E01 - Sistema informa que campos obrigatóros não estão preenchidos
-E02 - Sistema informa que conexão com o banco de dados não está disponível
-E03 - Sistema informa que funcionário não existe.</t>
   </si>
   <si>
     <t>A01 - 
@@ -294,33 +331,159 @@
       6 - Usuário clica no botão "Editar"
       7 - Usuário altera informações pertinentes
       8 - Usuário pressiona botão "Gravar"
-     9 - Sistema exibe tela de sucesso.</t>
-  </si>
-  <si>
-    <t>RN01 - Todos os campos devem ser preenchidos.</t>
-  </si>
-  <si>
-    <t>Manter usuário</t>
-  </si>
-  <si>
-    <t>Permitir a criação/alteração de usuários</t>
-  </si>
-  <si>
-    <t>Este caso de uso será executado sempre que houver a necessidade de inclusão ou alteração de um usuário.</t>
-  </si>
-  <si>
-    <t>Estar logado no sistema, ter perfil de Administrador e possuir funconário cadastrado.</t>
-  </si>
-  <si>
-    <t>Após a execução o funcionário deverá ter seu usuário alterado ou incluso.</t>
+      9 - Sistema exibe tela de sucesso.
+A02 -
+    10 - Usuário clica no botão de cancelar
+     11 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     12 - Usuário conrfirma(A03).
+     13 - Sistema retorna a rela inicial.
+A03 - 
+     14 - Usuário não confirma perda de dados
+     15 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>1. Usuário clica em botão "Novo paciente". (A01)(E02)
+2. Usuário preenche dados solicitados. (RN01)
+3. Usuário clica em botão avançar. (E01)
+4. Sistema avança a próxima tela número 02 referente ao cadastro.
+5. Usuário preenche dados solicitados. (RN01)
+6. Usuário clica em botão avançar. (E01)
+7. Sistema avança para a tela de número 03 referente ao cadastro.
+8. Usuário preenche dados solicitados. (RN01)
+9. Usuário clica em botão de "Concluir". (E01)(A02)(A03)
+10.Sistema informa sucesso.</t>
+  </si>
+  <si>
+    <t>Manter Exames</t>
+  </si>
+  <si>
+    <t>Permitir a cadastro/alteração de exames</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que um paciente for realizar algum exame</t>
+  </si>
+  <si>
+    <t>Fisioterapeuta</t>
+  </si>
+  <si>
+    <t>Estar logado no sistema, ter perfil de fisioterapeuta e ter paciente previamente cadastrado.</t>
+  </si>
+  <si>
+    <t>Após execução o paciente deve ter todos os exames pertinentes cadastrados e/ou alterados</t>
+  </si>
+  <si>
+    <t>A01 -
+    01 - Usuário clica no botão de cancelar
+    02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+    03 - Usuário conrfirma(A02).
+    04 - Sistema retorna a rela inicial.
+A02 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela
+A03-
+     1 - Usuário clica no botão "Voltar"
+     2 - Sistema apresenta tela imediatamente anterior.</t>
+  </si>
+  <si>
+    <t>E01 - Sistema informa que conexão com banco de dados não esta disonível.</t>
+  </si>
+  <si>
+    <t>1. Usuário clica no botão "Realizar Exames". (E01)
+2. Sistema exibe tela de busca de pacientes.
+3. Usuário informa um dos critérios de busca e clica no botão "Procurar"
+5. Sistema exibe informações encontradas.
+6. Usuário clica sobre paciente desejado.
+7. Usuário preenche dados de exame realizado e clica em avançar. (A01)(E02)(RN01)
+8. Sistema aprensenta tela referente ao segundo exame.
+9. Usuário preenche dados do exame realizado e clica em avançar. (A03)(RN01)
+10. Sistema aprensenta tela referente ao terceiro exame.
+11. Usuário preenche dados do exame realizado e clica em avançar. (A03)(RN01)
+12. Sistema aprensenta tela referente ao quarto exame.
+13. Usuário preenche dados do exame realizado e clica em avançar. (A03)(RN01)
+14. Sistema aprensenta tela referente ao quinto exame.
+15. Usuário preenche dados do exame realizado e clica em avançar. (A03)(RN01)
+16. Sistema aprensenta tela referente ao sexto exame.
+17. Usuário preenche dados do exame realizado e clica em avançar. (A03)(RN01)</t>
+  </si>
+  <si>
+    <t>RN01 - Todos os campos referentes aos exames devem ser preenchidos obrigiatoriamente.]</t>
+  </si>
+  <si>
+    <t>Manter Consulta</t>
+  </si>
+  <si>
+    <t>Permitir a agendamento/ediçao de uma consulta.</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que houver a necessidade de agendamento ou edição de consulta.</t>
+  </si>
+  <si>
+    <t>Secretária, Administrador</t>
+  </si>
+  <si>
+    <t>Estar logado no sistema, ter perfil de Fisioterapeuta e/ou Secretária e/ou Administrador</t>
+  </si>
+  <si>
+    <t>Estar logado no sistema e possuir o perfil de Secretária e/ou Administrador</t>
+  </si>
+  <si>
+    <t>Após a execução uma consulta deverá ser agendada ou editada, as alterações/inclusões deverão constar no banco de dados.</t>
+  </si>
+  <si>
+    <t>A01 - 
+     1  - Usuário clica no botão "Paciente Existente"
+     2 - Sistema apresenta tela para realização de busca.(E01)
+     3 - Usuário informa um dos critérios de busca e clica no botão "Procurar". (E02)
+     4 - Sistema exibe nome do paciente.
+     5 - Usuário clica sobre o nome do paciente.
+     6 - Sistema exibe tela para agendamento.
+     7 - Usuário informa nome do Fisioterapeuta, data e hora da consulta e, após, clica em "Agendar".(E03)
+     8 - Sistema exibe tela de sucesso no agendamento.</t>
+  </si>
+  <si>
+    <t>E01 - Sistema informa que conexão com banco de dados não esta disonível
+E02 - Sistema informa que paciente não foi encontrado.
+E03 - Sistema informa que campos obrigatórios não foram preenchidos.</t>
+  </si>
+  <si>
+    <t>1. Usuário clica no botão "Agendar Consulta"
+2. Sistema apresenta tela para agendamendo.
+3. Usuário clica no botão "Novo Paciente". (A01)(E01)
+4. Sistema exibe tela para agendamento de consulta.
+5. Usuário preenche campos para agendamento e, após, clica em "Agendar".(E03)
+6. Sistema exibe tela de sucesso no agendamento. (RN01)</t>
+  </si>
+  <si>
+    <t>RN01 - O sistema deverá gerar um ID temporário para o paciente, esse ID será utilizado posteriormente para o cadastro do mesmo.</t>
+  </si>
+  <si>
+    <t>A01-
+     1. Usuário clica em botão de busca. (E02)
+     2. Usuário informa um dos campos para busca.
+     3. Usuário clica no botão "Procurar"(E03)
+     4. Sistema exibe o cadastro do paciente.
+     5. Usuário clica no botão "Editar".
+     6. Usuário muda inforções pertinentes e clica no botão gravar.
+     7. Sistema informa sucesso.
+A02-
+     1 - Usuário clica no botão "Voltar"
+     2 - Sistema apresenta tela imediatamente anterior.
+A03 -
+    10 - Usuário clica no botão de cancelar
+     11 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     12 - Usuário conrfirma(A04).
+     13 - Sistema retorna a rela inicial.
+A04 - 
+     14 - Usuário não confirma perda de dados
+     15 - Sistema permanece na mesma tela</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">1. Usuário clica em novo usuário.(E01)
 2. Sistema exibe tela de busca de funcionário.
 3. Usuário informa um dos critérios de busca de funcionário.(E02)
-4. Sistema exibe nome do funcionário e RG.
-5. Usuário flega o funcionário e clica no botão de "Novo Usuário". (A01)
+4. Sistema exibe nome do funcionário e ID.
+5. Usuário clica sobre o nome do funcionário. (A01)
 6. Usuário seleciona o perfil que será atribuido aquele funcionário.
 7. Usuário clica no botão "Concluir".
 8. Sistema exibe </t>
@@ -384,7 +547,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">username.
-     </t>
+    </t>
     </r>
     <r>
       <rPr>
@@ -400,56 +563,11 @@
     </r>
   </si>
   <si>
-    <t>E01 - Sistema informa que conexão com o banco de dados
-E02 - Sistema informa que funcionário não existe.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RN01 - o </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">username </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">deve ser construído da seguinte forma: nome.sobrenome
-RN02 - a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inicial será composta das 3 primeiras letras do nome + data de nascimento.</t>
-    </r>
+    <t>1 - Usuário clica no botão para realizar troca da senha.
+2 - Sistema exibe tela para troca de senha.
+3 - Usuário informa a senha antiga e digita por duas vezes a senha nova (para confirmação)
+4 - Usuário clica no botão "pronto".(E01)
+5 - Sistema exibe mensagem de sucesso.</t>
   </si>
 </sst>
 </file>
@@ -626,9 +744,6 @@
   <dxfs count="17">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -828,19 +943,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -849,25 +951,41 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -881,21 +999,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L14"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="#" dataDxfId="12"/>
-    <tableColumn id="2" name="NOME CASO DE USO" dataDxfId="11"/>
-    <tableColumn id="3" name="ESCOPO" dataDxfId="10"/>
-    <tableColumn id="4" name="DESCRIÇÃO" dataDxfId="9"/>
-    <tableColumn id="5" name="ATORES" dataDxfId="8"/>
-    <tableColumn id="6" name="PRÉ CONDIÇÕES" dataDxfId="7"/>
-    <tableColumn id="7" name="PÓS CONDIÇÕES" dataDxfId="6"/>
-    <tableColumn id="8" name="FLUXO PRINCIPAL" dataDxfId="5"/>
-    <tableColumn id="9" name="FLUXOS ALTERNATIVOS" dataDxfId="4"/>
-    <tableColumn id="10" name="FLUXOS DE EXCEÇÕES" dataDxfId="3"/>
-    <tableColumn id="11" name="REGRAS DE NEGÓCIO" dataDxfId="2"/>
-    <tableColumn id="12" name="DESENHO DA INTERFACE" dataDxfId="1"/>
+    <tableColumn id="1" name="#" dataDxfId="11"/>
+    <tableColumn id="2" name="NOME CASO DE USO" dataDxfId="10"/>
+    <tableColumn id="3" name="ESCOPO" dataDxfId="9"/>
+    <tableColumn id="4" name="DESCRIÇÃO" dataDxfId="8"/>
+    <tableColumn id="5" name="ATORES" dataDxfId="7"/>
+    <tableColumn id="6" name="PRÉ CONDIÇÕES" dataDxfId="6"/>
+    <tableColumn id="7" name="PÓS CONDIÇÕES" dataDxfId="5"/>
+    <tableColumn id="8" name="FLUXO PRINCIPAL" dataDxfId="4"/>
+    <tableColumn id="9" name="FLUXOS ALTERNATIVOS" dataDxfId="3"/>
+    <tableColumn id="10" name="FLUXOS DE EXCEÇÕES" dataDxfId="2"/>
+    <tableColumn id="11" name="REGRAS DE NEGÓCIO" dataDxfId="1"/>
+    <tableColumn id="12" name="DESENHO DA INTERFACE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1190,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,11 +1318,11 @@
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1"/>
-    <col min="9" max="9" width="54.42578125" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.85546875" customWidth="1"/>
     <col min="10" max="10" width="29.5703125" customWidth="1"/>
     <col min="11" max="11" width="28.5703125" customWidth="1"/>
     <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -1248,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1262,58 +1380,98 @@
         <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1396,80 +1554,80 @@
       <c r="K9" s="9"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="H10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="L10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1493,75 +1651,75 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="F13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="H13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="J13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="K13" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="H14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="K14" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1597,12 +1755,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
+++ b/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
+++ b/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>NOME CASO DE USO</t>
   </si>
@@ -322,26 +322,6 @@
 5. Sistema exibe tela de "cadastro efetuado com sucesso".</t>
   </si>
   <si>
-    <t>A01 - 
-      1 - Usuário clica no botão de busca de funcionários. (E02)
-      2 - Sistema exibe tela para busca.
-      3 - Usuário informa um dos critérios de busca.
-      4 - Usuário clica no botão de procura.(E03)
-      5 - Sistema exibe cadastro do usuário.
-      6 - Usuário clica no botão "Editar"
-      7 - Usuário altera informações pertinentes
-      8 - Usuário pressiona botão "Gravar"
-      9 - Sistema exibe tela de sucesso.
-A02 -
-    10 - Usuário clica no botão de cancelar
-     11 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
-     12 - Usuário conrfirma(A03).
-     13 - Sistema retorna a rela inicial.
-A03 - 
-     14 - Usuário não confirma perda de dados
-     15 - Sistema permanece na mesma tela</t>
-  </si>
-  <si>
     <t>1. Usuário clica em botão "Novo paciente". (A01)(E02)
 2. Usuário preenche dados solicitados. (RN01)
 3. Usuário clica em botão avançar. (E01)
@@ -354,16 +334,7 @@
 10.Sistema informa sucesso.</t>
   </si>
   <si>
-    <t>Manter Exames</t>
-  </si>
-  <si>
-    <t>Permitir a cadastro/alteração de exames</t>
-  </si>
-  <si>
     <t>Este caso de uso será executado sempre que um paciente for realizar algum exame</t>
-  </si>
-  <si>
-    <t>Fisioterapeuta</t>
   </si>
   <si>
     <t>Estar logado no sistema, ter perfil de fisioterapeuta e ter paciente previamente cadastrado.</t>
@@ -457,10 +428,102 @@
     <t>RN01 - O sistema deverá gerar um ID temporário para o paciente, esse ID será utilizado posteriormente para o cadastro do mesmo.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">1. Usuário clica em novo usuário.(E01)
+2. Sistema exibe tela de busca de funcionário.
+3. Usuário informa um dos critérios de busca de funcionário.(E02)
+4. Sistema exibe nome do funcionário e ID.
+5. Usuário clica sobre o nome do funcionário. (A01)
+6. Usuário seleciona o perfil que será atribuido aquele funcionário.
+7. Usuário clica no botão "Concluir".
+8. Sistema exibe </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Username </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inicial. (RN01)(RN02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A01 - 
+      1 - Usuário clica no botão de "Editar usuário"
+      2 - Sistema exibe tela com o perfil e </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">username.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 - Usuário realiza alterações pertinentes.
+      4 - Usuário clica em "Concluir".
+      5 - Sistema exibe tela de sucesso.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 - Usuário clica no botão para realizar troca da senha.
+2 - Sistema exibe tela para troca de senha.
+3 - Usuário informa a senha antiga e digita por duas vezes a senha nova (para confirmação)
+4 - Usuário clica no botão "pronto".(E01)
+5 - Sistema exibe mensagem de sucesso.</t>
+  </si>
+  <si>
     <t>A01-
      1. Usuário clica em botão de busca. (E02)
      2. Usuário informa um dos campos para busca.
-     3. Usuário clica no botão "Procurar"(E03)
+     3. Usuário clica no botão "Procurar"(E03)(A04)
      4. Sistema exibe o cadastro do paciente.
      5. Usuário clica no botão "Editar".
      6. Usuário muda inforções pertinentes e clica no botão gravar.
@@ -478,96 +541,139 @@
      15 - Sistema permanece na mesma tela</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Usuário clica em novo usuário.(E01)
-2. Sistema exibe tela de busca de funcionário.
-3. Usuário informa um dos critérios de busca de funcionário.(E02)
-4. Sistema exibe nome do funcionário e ID.
-5. Usuário clica sobre o nome do funcionário. (A01)
-6. Usuário seleciona o perfil que será atribuido aquele funcionário.
-7. Usuário clica no botão "Concluir".
-8. Sistema exibe </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Username </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">e </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inicial. (RN01)(RN02)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A01 - 
-      1 - Usuário clica no botão de "Editar usuário"
-      2 - Sistema exibe tela com o perfil e </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">username.
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3 - Usuário realiza alterações pertinentes.
-      4 - Usuário clica em "Concluir".
-      5 - Sistema exibe tela de sucesso.</t>
-    </r>
-  </si>
-  <si>
-    <t>1 - Usuário clica no botão para realizar troca da senha.
-2 - Sistema exibe tela para troca de senha.
-3 - Usuário informa a senha antiga e digita por duas vezes a senha nova (para confirmação)
-4 - Usuário clica no botão "pronto".(E01)
-5 - Sistema exibe mensagem de sucesso.</t>
+    <t>Gerar Relatório entre pacientes</t>
+  </si>
+  <si>
+    <t>Permitir a geração de relatório entre um grupo de pacientes e um paciente</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que o fisioterapeuta for extrair um relatório de comparação entre pacientes</t>
+  </si>
+  <si>
+    <t>Fisioterapeuta, Administrador</t>
+  </si>
+  <si>
+    <t>Realizar Exames</t>
+  </si>
+  <si>
+    <t>Estar logado no sistema, ter perfil de fisioterapeuta e ter paciente previamente cadastrado e com exames e exercicios realizados</t>
+  </si>
+  <si>
+    <t>Após execução deverá ser gerado um gráfico com a média do grupo de pacientes  com a evolução do paciente selecionado sendo comparada com a média do grupo</t>
+  </si>
+  <si>
+    <t>E01 - Sistema informa que conexão com o banco de dados não está disponível
+E02 - Sistema informa que grupo não existe.
+E03 - Sistema informa que campos obrigatóros não estão preenchidos</t>
+  </si>
+  <si>
+    <t>A01 - 
+      1 - Usuário clica no botão de busca de funcionários. (E02)
+      2 - Sistema exibe tela para busca.
+      3 - Usuário informa um dos critérios de busca.
+      4 - Usuário clica no botão de procura.(E03)
+      5 - Sistema exibe cadastro do usuário.
+      6 - Usuário clica no botão "Editar"
+      7 - Usuário altera informações pertinentes
+      8 - Usuário pressiona botão "Gravar"
+      9 - Sistema exibe tela de sucesso.
+A02 -
+    01 - Usuário clica no botão de cancelar
+     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A03).
+     04 - Sistema retorna a rela inicial.
+A03 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>1.Usuário informa nome do grupo e clica no botão para pequisa. (A01)(A02)(E01)(E02)
+2. Usuário informa ID do paciente e clica em gerar gráfico.(A02)
+3. Sistema exibe gráfico comparativo.</t>
+  </si>
+  <si>
+    <t>A01 - 
+       1 - Usuário clica no botão "Criar novo grupo".(A03)
+       2 - Sistema apresenta tela para criação de grupo.
+       3 - Usuário informa nome do grupo e período que será selecionado e pressiona "Criar Grupo" (E03)
+       4 - Sistema exibe mensagem de sucesso.
+A02 - 
+      01 - Usuário clica em editar grupo.(E01)
+      02 - Sistema apresenta tela para edição de grupo.
+      03 - Usuário informa nome do grupo e clica em "Editar"(A03)
+      04 - Usuário muda dados desejados e clica em "Salvar". (A03)(E03)
+      05 - Sistema exibe mensagem de sucesso.
+A03 -
+    01 - Usuário clica no botão de cancelar
+     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A04).
+     04 - Sistema retorna a rela inicial.
+A04 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>Manter Grupo de Pacientes</t>
+  </si>
+  <si>
+    <t>Permitir a realização de exames</t>
+  </si>
+  <si>
+    <t>Permitir o cadastro/alteração de determinado grupo pacientes</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que for necessária a criação/edição de determinado grupo de pacientes para efeitos de relatório</t>
+  </si>
+  <si>
+    <t>Após a execução o grupo de pacientes deverá ser criado/alterado no banco de dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      01 - Usuário clica em editar grupo.(E01)
+      02 - Sistema apresenta tela para edição de grupo.
+      03 - Usuário informa nome do grupo e clica em "Editar"(A01)
+      04 - Usuário muda dados desejados e clica em "Salvar".</t>
+  </si>
+  <si>
+    <t>A01 -
+    01 - Usuário clica no botão de cancelar
+     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A02).
+     04 - Sistema retorna a rela inicial.
+A02 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>Gerar Relatório de Paciente</t>
+  </si>
+  <si>
+    <t>Permitir a geração de relatório de um único paciente</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que o fisioterapeuta desejar extrair relatório sobre um paciente</t>
+  </si>
+  <si>
+    <t>Após execução será gerado um gráfico com a evolução do paciente em determinado período.</t>
+  </si>
+  <si>
+    <t>A01 -
+     01 - Usuário clica no botão de cancelar
+     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A02).
+     04 - Sistema retorna a rela inicial.
+A02 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>1. O usuário informa o Nome ou ID do paciente e seleciona período do relatório.(E01)(E02)
+2. O usuário clica em "Gerar Relatório".(A01)
+3. Sistema gera o relatório.</t>
+  </si>
+  <si>
+    <t>E01 - Sistema informa que conexão com o banco de dados não está disponível
+E02 - Sistema informa que paciente não existe.</t>
   </si>
 </sst>
 </file>
@@ -687,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,9 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,8 +1102,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:L13"/>
   <tableColumns count="12">
     <tableColumn id="1" name="#" dataDxfId="11"/>
     <tableColumn id="2" name="NOME CASO DE USO" dataDxfId="10"/>
@@ -1306,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,16 +1486,16 @@
         <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>18</v>
@@ -1400,79 +1503,85 @@
       <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="J3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="H4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1506,53 +1615,119 @@
       <c r="K6" s="9"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1580,7 +1755,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>40</v>
@@ -1588,8 +1763,8 @@
       <c r="K10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
+      <c r="L10" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -1615,10 +1790,10 @@
         <v>46</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>47</v>
@@ -1626,99 +1801,83 @@
       <c r="K11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>26</v>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="16" t="s">
+      <c r="J13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1735,7 +1894,7 @@
           <x14:formula1>
             <xm:f>Config!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L14</xm:sqref>
+          <xm:sqref>L2:L13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
+++ b/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
   <si>
     <t>NOME CASO DE USO</t>
   </si>
@@ -322,26 +322,6 @@
 5. Sistema exibe tela de "cadastro efetuado com sucesso".</t>
   </si>
   <si>
-    <t>A01 - 
-      1 - Usuário clica no botão de busca de funcionários. (E02)
-      2 - Sistema exibe tela para busca.
-      3 - Usuário informa um dos critérios de busca.
-      4 - Usuário clica no botão de procura.(E03)
-      5 - Sistema exibe cadastro do usuário.
-      6 - Usuário clica no botão "Editar"
-      7 - Usuário altera informações pertinentes
-      8 - Usuário pressiona botão "Gravar"
-      9 - Sistema exibe tela de sucesso.
-A02 -
-    10 - Usuário clica no botão de cancelar
-     11 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
-     12 - Usuário conrfirma(A03).
-     13 - Sistema retorna a rela inicial.
-A03 - 
-     14 - Usuário não confirma perda de dados
-     15 - Sistema permanece na mesma tela</t>
-  </si>
-  <si>
     <t>1. Usuário clica em botão "Novo paciente". (A01)(E02)
 2. Usuário preenche dados solicitados. (RN01)
 3. Usuário clica em botão avançar. (E01)
@@ -354,16 +334,7 @@
 10.Sistema informa sucesso.</t>
   </si>
   <si>
-    <t>Manter Exames</t>
-  </si>
-  <si>
-    <t>Permitir a cadastro/alteração de exames</t>
-  </si>
-  <si>
     <t>Este caso de uso será executado sempre que um paciente for realizar algum exame</t>
-  </si>
-  <si>
-    <t>Fisioterapeuta</t>
   </si>
   <si>
     <t>Estar logado no sistema, ter perfil de fisioterapeuta e ter paciente previamente cadastrado.</t>
@@ -406,9 +377,6 @@
 17. Usuário preenche dados do exame realizado e clica em avançar. (A03)(RN01)</t>
   </si>
   <si>
-    <t>RN01 - Todos os campos referentes aos exames devem ser preenchidos obrigiatoriamente.]</t>
-  </si>
-  <si>
     <t>Manter Consulta</t>
   </si>
   <si>
@@ -457,10 +425,102 @@
     <t>RN01 - O sistema deverá gerar um ID temporário para o paciente, esse ID será utilizado posteriormente para o cadastro do mesmo.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">1. Usuário clica em novo usuário.(E01)
+2. Sistema exibe tela de busca de funcionário.
+3. Usuário informa um dos critérios de busca de funcionário.(E02)
+4. Sistema exibe nome do funcionário e ID.
+5. Usuário clica sobre o nome do funcionário. (A01)
+6. Usuário seleciona o perfil que será atribuido aquele funcionário.
+7. Usuário clica no botão "Concluir".
+8. Sistema exibe </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Username </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inicial. (RN01)(RN02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A01 - 
+      1 - Usuário clica no botão de "Editar usuário"
+      2 - Sistema exibe tela com o perfil e </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">username.
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 - Usuário realiza alterações pertinentes.
+      4 - Usuário clica em "Concluir".
+      5 - Sistema exibe tela de sucesso.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 - Usuário clica no botão para realizar troca da senha.
+2 - Sistema exibe tela para troca de senha.
+3 - Usuário informa a senha antiga e digita por duas vezes a senha nova (para confirmação)
+4 - Usuário clica no botão "pronto".(E01)
+5 - Sistema exibe mensagem de sucesso.</t>
+  </si>
+  <si>
     <t>A01-
      1. Usuário clica em botão de busca. (E02)
      2. Usuário informa um dos campos para busca.
-     3. Usuário clica no botão "Procurar"(E03)
+     3. Usuário clica no botão "Procurar"(E03)(A04)
      4. Sistema exibe o cadastro do paciente.
      5. Usuário clica no botão "Editar".
      6. Usuário muda inforções pertinentes e clica no botão gravar.
@@ -478,96 +538,218 @@
      15 - Sistema permanece na mesma tela</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Usuário clica em novo usuário.(E01)
-2. Sistema exibe tela de busca de funcionário.
-3. Usuário informa um dos critérios de busca de funcionário.(E02)
-4. Sistema exibe nome do funcionário e ID.
-5. Usuário clica sobre o nome do funcionário. (A01)
-6. Usuário seleciona o perfil que será atribuido aquele funcionário.
-7. Usuário clica no botão "Concluir".
-8. Sistema exibe </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Username </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">e </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Password </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inicial. (RN01)(RN02)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A01 - 
-      1 - Usuário clica no botão de "Editar usuário"
-      2 - Sistema exibe tela com o perfil e </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">username.
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3 - Usuário realiza alterações pertinentes.
-      4 - Usuário clica em "Concluir".
-      5 - Sistema exibe tela de sucesso.</t>
-    </r>
-  </si>
-  <si>
-    <t>1 - Usuário clica no botão para realizar troca da senha.
-2 - Sistema exibe tela para troca de senha.
-3 - Usuário informa a senha antiga e digita por duas vezes a senha nova (para confirmação)
-4 - Usuário clica no botão "pronto".(E01)
-5 - Sistema exibe mensagem de sucesso.</t>
+    <t>Gerar Relatório entre pacientes</t>
+  </si>
+  <si>
+    <t>Permitir a geração de relatório entre um grupo de pacientes e um paciente</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que o fisioterapeuta for extrair um relatório de comparação entre pacientes</t>
+  </si>
+  <si>
+    <t>Fisioterapeuta, Administrador</t>
+  </si>
+  <si>
+    <t>Realizar Exames</t>
+  </si>
+  <si>
+    <t>Estar logado no sistema, ter perfil de fisioterapeuta e ter paciente previamente cadastrado e com exames e exercicios realizados</t>
+  </si>
+  <si>
+    <t>Após execução deverá ser gerado um gráfico com a média do grupo de pacientes  com a evolução do paciente selecionado sendo comparada com a média do grupo</t>
+  </si>
+  <si>
+    <t>E01 - Sistema informa que conexão com o banco de dados não está disponível
+E02 - Sistema informa que grupo não existe.
+E03 - Sistema informa que campos obrigatóros não estão preenchidos</t>
+  </si>
+  <si>
+    <t>A01 - 
+      1 - Usuário clica no botão de busca de funcionários. (E02)
+      2 - Sistema exibe tela para busca.
+      3 - Usuário informa um dos critérios de busca.
+      4 - Usuário clica no botão de procura.(E03)
+      5 - Sistema exibe cadastro do usuário.
+      6 - Usuário clica no botão "Editar"
+      7 - Usuário altera informações pertinentes
+      8 - Usuário pressiona botão "Gravar"
+      9 - Sistema exibe tela de sucesso.
+A02 -
+    01 - Usuário clica no botão de cancelar
+     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A03).
+     04 - Sistema retorna a rela inicial.
+A03 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>1.Usuário informa nome do grupo e clica no botão para pequisa. (A01)(A02)(E01)(E02)
+2. Usuário informa ID do paciente e clica em gerar gráfico.(A02)
+3. Sistema exibe gráfico comparativo.</t>
+  </si>
+  <si>
+    <t>A01 - 
+       1 - Usuário clica no botão "Criar novo grupo".(A03)
+       2 - Sistema apresenta tela para criação de grupo.
+       3 - Usuário informa nome do grupo e período que será selecionado e pressiona "Criar Grupo" (E03)
+       4 - Sistema exibe mensagem de sucesso.
+A02 - 
+      01 - Usuário clica em editar grupo.(E01)
+      02 - Sistema apresenta tela para edição de grupo.
+      03 - Usuário informa nome do grupo e clica em "Editar"(A03)
+      04 - Usuário muda dados desejados e clica em "Salvar". (A03)(E03)
+      05 - Sistema exibe mensagem de sucesso.
+A03 -
+    01 - Usuário clica no botão de cancelar
+     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A04).
+     04 - Sistema retorna a rela inicial.
+A04 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>Manter Grupo de Pacientes</t>
+  </si>
+  <si>
+    <t>Permitir a realização de exames</t>
+  </si>
+  <si>
+    <t>Permitir o cadastro/alteração de determinado grupo pacientes</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que for necessária a criação/edição de determinado grupo de pacientes para efeitos de relatório</t>
+  </si>
+  <si>
+    <t>Após a execução o grupo de pacientes deverá ser criado/alterado no banco de dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+      01 - Usuário clica em editar grupo.(E01)
+      02 - Sistema apresenta tela para edição de grupo.
+      03 - Usuário informa nome do grupo e clica em "Editar"(A01)
+      04 - Usuário muda dados desejados e clica em "Salvar".</t>
+  </si>
+  <si>
+    <t>A01 -
+    01 - Usuário clica no botão de cancelar
+     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A02).
+     04 - Sistema retorna a rela inicial.
+A02 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>Gerar Relatório de Paciente</t>
+  </si>
+  <si>
+    <t>Permitir a geração de relatório de um único paciente</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que o fisioterapeuta desejar extrair relatório sobre um paciente</t>
+  </si>
+  <si>
+    <t>Após execução será gerado um gráfico com a evolução do paciente em determinado período.</t>
+  </si>
+  <si>
+    <t>A01 -
+     01 - Usuário clica no botão de cancelar
+     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A02).
+     04 - Sistema retorna a rela inicial.
+A02 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>1. O usuário informa o Nome ou ID do paciente e seleciona período do relatório.(E01)(E02)
+2. O usuário clica em "Gerar Relatório".(A01)
+3. Sistema gera o relatório.</t>
+  </si>
+  <si>
+    <t>Aplicar Exercicio</t>
+  </si>
+  <si>
+    <t>Manter Exercicio</t>
+  </si>
+  <si>
+    <t>Permitir o cadastro/edição  de exercicios</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executado sempre que houver a necessidade de cadastro de novo exercicio</t>
+  </si>
+  <si>
+    <t>Após execução um novo exercicio deve ser cadastrado.</t>
+  </si>
+  <si>
+    <t>A01 - 
+       1 - Usuário clica no botão "Editar Exercicio"
+       2 - Usuário digita o nome do exercicio e clica no botão "Procurar".(E01)(E02)
+       3 - Sistema apresenta dados editáveis do exercicio.
+       4 - Usuário edita os dados e clica em "Gravar". (A02).
+       5 - Sistema exibe tela de sucesso.
+A02 -
+    01 - Usuário clica no botão de cancelar
+     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A03).
+     04 - Sistema retorna a rela inicial.
+A03 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela</t>
+  </si>
+  <si>
+    <t>E01 - Sistema informa que conexão com o banco de dados não está disponível
+E02 - Sistema informa que paciente não existe.
+E03 - Sistema informa que campos obrigatóros não estão preenchidos</t>
+  </si>
+  <si>
+    <t>E01 - Sistema informa que conexão com o banco de dados não está disponível
+E02 - Sistema informa que exercicio não existe.
+E03 - Sistema informa que camera não está disponível.
+E04 - Sistema informa que campos obrigatóros não estão preenchidos</t>
+  </si>
+  <si>
+    <t>1. Usuário clica no botão "Novo Exercicio". (A01)
+2. Sistema apresenta tela para inclusão de exercício.
+3. Usuário clica no botão para capturar foto do exercicio.(E3)
+4. Usuário preenche dados pertinentes e clica no botão gravar.(A02)(E04)</t>
+  </si>
+  <si>
+    <t>Permitir aplicação de exercicios</t>
+  </si>
+  <si>
+    <t>Este caso de uso será executao sempre que o fisioterapeuta aplicar um exercicio</t>
+  </si>
+  <si>
+    <t>Após execução deverá ser registrado que determinado realizou exercicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01 - 
+       1 - Usuário clica no botão para visualizar exercicio.
+       2 - Sistema exibe detalhes do exercicio.
+A02 -
+    01 - Usuário clica no botão de cancelar
+    02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
+     03 - Usuário conrfirma(A03).
+     04 - Sistema retorna a rela inicial.
+A03 - 
+     01 - Usuário não confirma perda de dados
+     02 - Sistema permanece na mesma tela
+       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Usuário clica no botão "Aplicar exercicio".
+2. Sistema apresenta tela para aplicação de exercicio
+3. Usuário digita nome do paciente e clica em pesquisar.(E01)(E02)
+4. Usuário escolhe exercicio a ser realizado.(A01)
+5. Usuário aplica o exercicio, atribui nota e clica em "gravar".(A02)(E03)
+6. Sistema exibe mensagem de sucesso.
+</t>
+  </si>
+  <si>
+    <t>RN01 - Todos os campos referentes aos exames devem ser preenchidos obrigiatoriamente.</t>
   </si>
 </sst>
 </file>
@@ -687,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,9 +901,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,8 +1178,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:L13">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="12"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" name="#" dataDxfId="11"/>
     <tableColumn id="2" name="NOME CASO DE USO" dataDxfId="10"/>
@@ -1306,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1383,16 +1568,16 @@
         <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>18</v>
@@ -1400,161 +1585,277 @@
       <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="196.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="H4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="K4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="134.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="144.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1580,7 +1881,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>40</v>
@@ -1588,11 +1889,11 @@
       <c r="K10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
+      <c r="L10" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1615,10 +1916,10 @@
         <v>46</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>47</v>
@@ -1626,99 +1927,83 @@
       <c r="K11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>26</v>
+      <c r="G13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="16" t="s">
+      <c r="J13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1735,7 +2020,7 @@
           <x14:formula1>
             <xm:f>Config!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L14</xm:sqref>
+          <xm:sqref>L2:L13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
+++ b/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>NOME CASO DE USO</t>
   </si>
@@ -375,6 +375,9 @@
 15. Usuário preenche dados do exame realizado e clica em avançar. (A03)(RN01)
 16. Sistema aprensenta tela referente ao sexto exame.
 17. Usuário preenche dados do exame realizado e clica em avançar. (A03)(RN01)</t>
+  </si>
+  <si>
+    <t>RN01 - Todos os campos referentes aos exames devem ser preenchidos obrigiatoriamente.]</t>
   </si>
   <si>
     <t>Manter Consulta</t>
@@ -669,87 +672,8 @@
 3. Sistema gera o relatório.</t>
   </si>
   <si>
-    <t>Aplicar Exercicio</t>
-  </si>
-  <si>
-    <t>Manter Exercicio</t>
-  </si>
-  <si>
-    <t>Permitir o cadastro/edição  de exercicios</t>
-  </si>
-  <si>
-    <t>Este caso de uso será executado sempre que houver a necessidade de cadastro de novo exercicio</t>
-  </si>
-  <si>
-    <t>Após execução um novo exercicio deve ser cadastrado.</t>
-  </si>
-  <si>
-    <t>A01 - 
-       1 - Usuário clica no botão "Editar Exercicio"
-       2 - Usuário digita o nome do exercicio e clica no botão "Procurar".(E01)(E02)
-       3 - Sistema apresenta dados editáveis do exercicio.
-       4 - Usuário edita os dados e clica em "Gravar". (A02).
-       5 - Sistema exibe tela de sucesso.
-A02 -
-    01 - Usuário clica no botão de cancelar
-     02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
-     03 - Usuário conrfirma(A03).
-     04 - Sistema retorna a rela inicial.
-A03 - 
-     01 - Usuário não confirma perda de dados
-     02 - Sistema permanece na mesma tela</t>
-  </si>
-  <si>
     <t>E01 - Sistema informa que conexão com o banco de dados não está disponível
-E02 - Sistema informa que paciente não existe.
-E03 - Sistema informa que campos obrigatóros não estão preenchidos</t>
-  </si>
-  <si>
-    <t>E01 - Sistema informa que conexão com o banco de dados não está disponível
-E02 - Sistema informa que exercicio não existe.
-E03 - Sistema informa que camera não está disponível.
-E04 - Sistema informa que campos obrigatóros não estão preenchidos</t>
-  </si>
-  <si>
-    <t>1. Usuário clica no botão "Novo Exercicio". (A01)
-2. Sistema apresenta tela para inclusão de exercício.
-3. Usuário clica no botão para capturar foto do exercicio.(E3)
-4. Usuário preenche dados pertinentes e clica no botão gravar.(A02)(E04)</t>
-  </si>
-  <si>
-    <t>Permitir aplicação de exercicios</t>
-  </si>
-  <si>
-    <t>Este caso de uso será executao sempre que o fisioterapeuta aplicar um exercicio</t>
-  </si>
-  <si>
-    <t>Após execução deverá ser registrado que determinado realizou exercicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A01 - 
-       1 - Usuário clica no botão para visualizar exercicio.
-       2 - Sistema exibe detalhes do exercicio.
-A02 -
-    01 - Usuário clica no botão de cancelar
-    02 - Sistema exibe pop up perguntando se realmente deve cancelar operação.
-     03 - Usuário conrfirma(A03).
-     04 - Sistema retorna a rela inicial.
-A03 - 
-     01 - Usuário não confirma perda de dados
-     02 - Sistema permanece na mesma tela
-       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Usuário clica no botão "Aplicar exercicio".
-2. Sistema apresenta tela para aplicação de exercicio
-3. Usuário digita nome do paciente e clica em pesquisar.(E01)(E02)
-4. Usuário escolhe exercicio a ser realizado.(A01)
-5. Usuário aplica o exercicio, atribui nota e clica em "gravar".(A02)(E03)
-6. Sistema exibe mensagem de sucesso.
-</t>
-  </si>
-  <si>
-    <t>RN01 - Todos os campos referentes aos exames devem ser preenchidos obrigiatoriamente.</t>
+E02 - Sistema informa que paciente não existe.</t>
   </si>
 </sst>
 </file>
@@ -1179,13 +1103,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L13">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="12"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L13"/>
   <tableColumns count="12">
     <tableColumn id="1" name="#" dataDxfId="11"/>
     <tableColumn id="2" name="NOME CASO DE USO" dataDxfId="10"/>
@@ -1493,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1568,7 +1486,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
@@ -1577,7 +1495,7 @@
         <v>51</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>18</v>
@@ -1589,59 +1507,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="196.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="K3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>53</v>
@@ -1659,118 +1577,74 @@
         <v>56</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="134.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="144.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>29</v>
@@ -1779,36 +1653,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="J8" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>29</v>
@@ -1817,36 +1691,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="330" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>29</v>
@@ -1855,7 +1729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1881,7 +1755,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>40</v>
@@ -1893,7 +1767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1916,10 +1790,10 @@
         <v>46</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>47</v>
@@ -1931,7 +1805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1992,7 +1866,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>29</v>
